--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_02-01_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_02-01_beg.xlsx
@@ -290,7 +290,7 @@
     <t>[name="ドーベルマン"]  くれぐれも遅刻しないようにな。</t>
   </si>
   <si>
-    <t xml:space="preserve">[name=""]   5:57 AM \ Cloudy \ Visibility: 17 km
+    <t xml:space="preserve">[name=""]   5:57 A.M. \ Cloudy \ Visibility: 17 km
 </t>
   </si>
   <si>
